--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.3.1.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.1.3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\owasp-mstg-20200426-2049.work\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\owasp-mstg\checklist.work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6908468B-A938-47A9-976F-1071BBAED6A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB146AEE-BF06-4F8E-8A28-5D5FBB1C05B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10" yWindow="60" windowWidth="18840" windowHeight="9920" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="280" windowWidth="18780" windowHeight="9920" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -2564,82 +2564,119 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2650,33 +2687,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2688,16 +2698,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4028,48 +4028,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="120" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="128"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="129"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="125"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="129"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="129"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="131"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="129"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="125"/>
     </row>
     <row r="8" spans="2:4" hidden="1">
-      <c r="B8" s="132"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="134"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="128"/>
     </row>
     <row r="9" spans="2:4" ht="15.5">
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="33" t="s">
@@ -4079,19 +4079,19 @@
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="136" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="140"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="44">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="137" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="141"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="38" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -4101,19 +4101,19 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="136" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="140"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="37" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="139"/>
+      <c r="C14" s="135"/>
       <c r="D14" s="35" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
@@ -4123,67 +4123,67 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="40.25" customHeight="1">
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="138"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="134"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="122"/>
+      <c r="C16" s="117"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="125"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="116" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="117"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="122"/>
+      <c r="C19" s="117"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="122"/>
+      <c r="C20" s="117"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="116" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="122"/>
+      <c r="C21" s="117"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="122"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.5">
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="124"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
@@ -4200,37 +4200,37 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="116" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="122"/>
+      <c r="C26" s="117"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="122"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="122"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="122"/>
+      <c r="C29" s="117"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4" ht="15.5">
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
@@ -4247,37 +4247,37 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="116" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="122"/>
+      <c r="C33" s="117"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="116" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="122"/>
+      <c r="C34" s="117"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="117"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="122"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4" ht="15.5">
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="124"/>
+      <c r="B37" s="130"/>
+      <c r="C37" s="130"/>
+      <c r="D37" s="131"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
@@ -4287,100 +4287,97 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" ht="15.5">
-      <c r="B39" s="118"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="120"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="140"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="116" t="s">
+      <c r="B40" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="117"/>
+      <c r="C40" s="141"/>
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="117"/>
+      <c r="C41" s="141"/>
       <c r="D41" s="24"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="116" t="s">
+      <c r="B42" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="117"/>
+      <c r="C42" s="141"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="117"/>
+      <c r="C43" s="141"/>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="116" t="s">
+      <c r="B44" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="117"/>
+      <c r="C44" s="141"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="2:4" ht="15.5">
-      <c r="B45" s="118"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="120"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="139"/>
+      <c r="D45" s="140"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="116" t="s">
+      <c r="B46" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="117"/>
+      <c r="C46" s="141"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="116" t="s">
+      <c r="B47" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="117"/>
+      <c r="C47" s="141"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="116" t="s">
+      <c r="B48" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="117"/>
+      <c r="C48" s="141"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="116" t="s">
+      <c r="B49" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="117"/>
+      <c r="C49" s="141"/>
       <c r="D49" s="25"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="117"/>
+      <c r="C50" s="141"/>
       <c r="D50" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4395,16 +4392,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4449,11 +4449,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24" ht="14.5">
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
     </row>
     <row r="5" spans="2:24" ht="16.25" customHeight="1" thickBot="1">
       <c r="B5" s="20"/>
@@ -4468,16 +4468,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="159" t="s">
+      <c r="G6" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
-      <c r="V6" s="142" t="s">
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
+      <c r="V6" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="143"/>
-      <c r="X6" s="144"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="157"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1">
       <c r="B7" s="13"/>
@@ -4492,18 +4492,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="145">
+      <c r="G8" s="143">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="V8" s="145">
+      <c r="H8" s="144"/>
+      <c r="I8" s="145"/>
+      <c r="V8" s="143">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="146"/>
-      <c r="X8" s="147"/>
+      <c r="W8" s="144"/>
+      <c r="X8" s="145"/>
     </row>
     <row r="9" spans="2:24" ht="91.25" customHeight="1">
       <c r="B9" s="21"/>
@@ -4511,12 +4511,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="150"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="147"/>
+      <c r="X9" s="148"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="13"/>
@@ -4524,12 +4524,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="150"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="147"/>
+      <c r="X10" s="148"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="13"/>
@@ -4537,19 +4537,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="153"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="151"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="150"/>
+      <c r="X11" s="151"/>
     </row>
     <row r="12" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="14"/>
@@ -4573,11 +4573,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="154"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14"/>
@@ -4630,18 +4630,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="41" spans="3:11" ht="14.5">
-      <c r="D41" s="155" t="s">
+      <c r="D41" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="157"/>
-      <c r="H41" s="155" t="s">
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="157"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
+      <c r="K41" s="161"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="17" t="s">
@@ -4967,15 +4967,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="41"/>
   <conditionalFormatting sqref="F14">
@@ -5016,7 +5016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
@@ -7225,7 +7225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
@@ -7741,7 +7741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L94"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
@@ -9931,7 +9931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
   <cols>
